--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560334/JX560334_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560334/JX560334_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89309421067</v>
+        <v>45441.83336173629</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1147_1151insgact']</t>
+          <t>['1311_1366del', '1216_1326inscactggaagcttgtccgtccgcggacagtgaatgagttgggtcggcgctttctgggttacctgggactgtcgacgggtaggatcttgaacggtattgcagaaaccaggcg', '1284_1347insttgtgctagagttctttccgtttcgttaggcaggtgccttcataggttccccccttgatgagt', '1236_1288del', '1161_1185insacatatgtggcactgtgacgctct']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.8930942339</v>
+        <v>45441.83336175943</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['237t&gt;g']</t>
+          <t>['183_295insttcgacattgctttcatacatgtatggtcgctcatgcgcggctgcagtgtcataaatgcagtcctacccaaacacttaggcgcagagcccctccctacgttccagtatccta', '168_269insccaaagttgatggcctaacggcgggggagctctccgccgcacttaatggttgcatgtggcctcccttcccgtcgcggtatcgacatgattagtatcaaaca', '205_271insgcttcgcaaatctaagtgtcgcgttcaactcataattagatttgagcctctgtttaagacacgttc', '183_197del', '244_334insgggcggctagatgccgcgtccaactgaagatgcttcagccataactggtggaccatttgatgcataatccggtaccggttgctttagcat']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89309425316</v>
+        <v>45441.83336179248</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3409g&gt;a']</t>
+          <t>['3323_3379insgtcatcgtgtctaagccccaaattggccggccacatggtccgagtctagggccaat', '3320_3390insgtatcacactgctcagggggagtaatccctggcctaagcggcgcccgtaaccgggctcggagtaaggctg', '3327_3350insgtcaaacacacctccaatgctgt', '3327_3413del', '3327_3456insccaagcgatctgaatactccacggcacttccaaacgagtctaagatcacgtgtccatgaatcgaattgttacccacctagtctaccacatgcgtagtaagtgcaccgcatagtagccatcggtagtggg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89309438227</v>
+        <v>45441.83336181562</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1143_1144del']</t>
+          <t>['1093_1106insacggaagtgtctc', '1107_1187insgcgatctttgccggtcaataataggcgaaactatgcaaaaagacgtgctgcggtgtaagtagaccaaattattaagaaat', '1159_1265del', '1262_1316del', '1271_1413del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['239_241insat']</t>
+          <t>['193_287del', '185_291del', '238_267del', '251_290del', '154_264del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89309439963</v>
+        <v>45441.83336183299</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1286_1290instacc']</t>
+          <t>['1178_1194insattagataatcggtcc', '1187_1215del', '1278_1379del', '1284_1297del', '1148_1208insctccggctgcatcagactatcggttatcgcccatgatagatatgtggttaggccgcctta']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3326_3326del']</t>
+          <t>['3379_3501del', '3346_3430del', '3317_3344del', '3402_3504insggagtaacgttgtcaacactaggtgcatagccggctgatattgcacgtaacgaagatctggggttcaccgaaatttataagagtacggtcgtaagcgtcgcg', '3411_3477del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89309442279</v>
+        <v>45441.83336185481</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['178_179del']</t>
+          <t>['158_196del', '202_331del', '164_190del', '241_371inscttctagcccgggcacgtggtgtcgttaccgttgtggttgtttctgtggtaggcaattagctcctcagtaatctacggcgcaagccagtaatcggcgtgttttagcctcgcaccgctggaattggctgat', '193_336del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3372a&gt;g']</t>
+          <t>['3374_3425del', '3358_3495del', '3352_3377del', '3388_3420insagacccaacaagcctgatgttaagaaaaaaac', '3400_3533del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89309444015</v>
+        <v>45441.83336188786</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1103_1106del']</t>
+          <t>['1142_1189insgcatcggcctaaggtagggatcatccgtgctcgcgtactaacacggt', '1201_1265del', '1306_1398del', '1148_1193del', '1287_1354del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['195t&gt;c']</t>
+          <t>['180_293del', '231_297del', '198_207del', '191_240del', '196_300instccagtccacatactcattcgccactcctccctctccactgtagaggccgggtagaccttgggaggctccgctattttagtgtcgaaccatcatggcatcattg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3317g&gt;a']</t>
+          <t>['3348_3475del', '3394_3471del', '3314_3372del', '3342_3356del', '3365_3492insgaaattcagaattgacttcgtggggtacgtaattaatcttaattggttgtcgctggggtaactaagcgtcagacgaccaagtgaacgtgttacctcgaaacaagaggtgtctcccaaccgtacagac']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.8930944633</v>
+        <v>45441.8333619094</v>
       </c>
     </row>
   </sheetData>
